--- a/data/overtheyears.xlsx
+++ b/data/overtheyears.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\M335337\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\rufibach\90_github_repos\EFSPI\20_workshop\efspiworkshop\workshop\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8083CC2-4045-4BB3-B3DB-0782DE46A96B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8E6C08E-8695-40A9-B4C9-427546CC4099}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -371,7 +371,7 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -466,16 +466,16 @@
         <v>2025</v>
       </c>
       <c r="B6">
-        <v>289</v>
+        <v>299</v>
       </c>
       <c r="C6">
-        <v>312</v>
+        <v>336</v>
       </c>
       <c r="D6">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E6">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>

--- a/data/overtheyears.xlsx
+++ b/data/overtheyears.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\rufibach\90_github_repos\EFSPI\20_workshop\efspiworkshop\workshop\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8E6C08E-8695-40A9-B4C9-427546CC4099}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E17D808C-6BF1-4FAC-91CD-441BD5EFCBD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -371,7 +371,7 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -466,16 +466,16 @@
         <v>2025</v>
       </c>
       <c r="B6">
-        <v>299</v>
+        <v>288</v>
       </c>
       <c r="C6">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="D6">
         <v>33</v>
       </c>
       <c r="E6">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>

--- a/data/overtheyears.xlsx
+++ b/data/overtheyears.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\rufibach\90_github_repos\EFSPI\20_workshop\efspiworkshop\workshop\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E17D808C-6BF1-4FAC-91CD-441BD5EFCBD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D60A08B-413C-4CC6-8451-9D450A4027D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -371,7 +371,7 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -466,16 +466,16 @@
         <v>2025</v>
       </c>
       <c r="B6">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="C6">
-        <v>344</v>
+        <v>355</v>
       </c>
       <c r="D6">
         <v>33</v>
       </c>
       <c r="E6">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>

--- a/data/overtheyears.xlsx
+++ b/data/overtheyears.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\rufibach\90_github_repos\EFSPI\20_workshop\efspiworkshop\workshop\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D60A08B-413C-4CC6-8451-9D450A4027D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3B90AE4-17FA-44C7-831B-CA28840BBEAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -371,12 +371,12 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -393,7 +393,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>2021</v>
       </c>
@@ -410,7 +410,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2022</v>
       </c>
@@ -427,7 +427,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2023</v>
       </c>
@@ -444,7 +444,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2024</v>
       </c>
@@ -461,21 +461,21 @@
         <v>56</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2025</v>
       </c>
       <c r="B6">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="C6">
-        <v>355</v>
+        <v>372</v>
       </c>
       <c r="D6">
         <v>33</v>
       </c>
       <c r="E6">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>

--- a/data/overtheyears.xlsx
+++ b/data/overtheyears.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\rufibach\90_github_repos\EFSPI\20_workshop\efspiworkshop\workshop\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3B90AE4-17FA-44C7-831B-CA28840BBEAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B028BABA-7BA1-4288-BC66-0524204ADFD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -371,7 +371,7 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -469,7 +469,7 @@
         <v>288</v>
       </c>
       <c r="C6">
-        <v>372</v>
+        <v>377</v>
       </c>
       <c r="D6">
         <v>33</v>
